--- a/Paperwork/작업 스케줄.xlsx
+++ b/Paperwork/작업 스케줄.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\Portfolio\Scaffold-Fall\Paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D4CC5-3C0D-4D68-AF13-F905CC1CAB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31031A72-7FED-4329-ACF4-7B3233BD60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15530" yWindow="4830" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20430" yWindow="15410" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,76 +25,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>알파</t>
-  </si>
-  <si>
-    <t>기능구현</t>
-  </si>
-  <si>
-    <t>베타</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>비계</t>
+  </si>
+  <si>
+    <t>스포트라이트</t>
+  </si>
+  <si>
+    <t>거푸집</t>
+  </si>
+  <si>
+    <t>거푸집 벽면</t>
+  </si>
+  <si>
+    <t>HDRI</t>
+  </si>
+  <si>
+    <t>거푸집 더미</t>
+  </si>
+  <si>
+    <t>파이프</t>
+  </si>
+  <si>
+    <t>파이프 더미</t>
+  </si>
+  <si>
+    <t>드럼통</t>
+  </si>
+  <si>
+    <t>공구 상자</t>
+  </si>
+  <si>
+    <t>작업대</t>
+  </si>
+  <si>
+    <t>외부 천막</t>
+  </si>
+  <si>
+    <t>외부 골조</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사 현장 벽체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파 버전 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 구조물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터렉션 오브젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베타 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 수정 및 기능 보완</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 이미지 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아트 에셋 추가</t>
-  </si>
-  <si>
-    <t>비계</t>
-  </si>
-  <si>
-    <t>스포트라이트</t>
-  </si>
-  <si>
-    <t>거푸집</t>
-  </si>
-  <si>
-    <t>거푸집 벽면</t>
-  </si>
-  <si>
-    <t>HDRI</t>
-  </si>
-  <si>
-    <t>거푸집 더미</t>
-  </si>
-  <si>
-    <t>파이프</t>
-  </si>
-  <si>
-    <t>파이프 더미</t>
-  </si>
-  <si>
-    <t>드럼통</t>
-  </si>
-  <si>
-    <t>공구 상자</t>
-  </si>
-  <si>
-    <t>작업대</t>
-  </si>
-  <si>
-    <t>외부 천막</t>
-  </si>
-  <si>
-    <t>외부 골조</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>사운드</t>
-  </si>
-  <si>
-    <t>최종 베타</t>
-  </si>
-  <si>
-    <t>기능 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -108,8 +168,28 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +214,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -158,32 +274,582 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,170 +1234,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AMJ20"/>
+  <dimension ref="A3:AMJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="38" width="3.25" style="2" customWidth="1"/>
-    <col min="39" max="1024" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="43" width="3" style="1" customWidth="1"/>
+    <col min="44" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="8"/>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="18" spans="3:43" ht="17.5" thickBot="1"/>
+    <row r="19" spans="3:43">
+      <c r="C19" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3" t="s">
+      <c r="D19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3" t="s">
+      <c r="E19" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="12"/>
+    </row>
+    <row r="20" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C20" s="62"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16">
+        <v>4</v>
+      </c>
+      <c r="I20" s="16">
+        <v>5</v>
+      </c>
+      <c r="J20" s="16">
+        <v>6</v>
+      </c>
+      <c r="K20" s="16">
+        <v>7</v>
+      </c>
+      <c r="L20" s="16">
+        <v>8</v>
+      </c>
+      <c r="M20" s="17">
+        <v>9</v>
+      </c>
+      <c r="N20" s="18">
+        <v>10</v>
+      </c>
+      <c r="O20" s="16">
+        <v>11</v>
+      </c>
+      <c r="P20" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>13</v>
+      </c>
+      <c r="R20" s="16">
+        <v>14</v>
+      </c>
+      <c r="S20" s="16">
         <v>15</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="3" t="s">
+      <c r="T20" s="17">
         <v>16</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="U20" s="18">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="V20" s="16">
         <v>18</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
+      <c r="W20" s="16">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="X20" s="16">
         <v>20</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="Y20" s="16">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>23</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>26</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>27</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>28</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>29</v>
+      </c>
+      <c r="AH20" s="50">
+        <v>30</v>
+      </c>
+      <c r="AI20" s="56">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="16">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="16">
+        <v>3</v>
+      </c>
+      <c r="AL20" s="16">
+        <v>4</v>
+      </c>
+      <c r="AM20" s="16">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="16">
+        <v>6</v>
+      </c>
+      <c r="AO20" s="17">
+        <v>7</v>
+      </c>
+      <c r="AP20" s="18">
+        <v>8</v>
+      </c>
+      <c r="AQ20" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="22"/>
+    </row>
+    <row r="22" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="22"/>
+    </row>
+    <row r="23" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="24"/>
+    </row>
+    <row r="24" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="26"/>
+    </row>
+    <row r="25" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C25" s="27"/>
+      <c r="D25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="15"/>
+    </row>
+    <row r="26" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="24"/>
+    </row>
+    <row r="27" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="45"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="26"/>
+    </row>
+    <row r="28" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C28" s="27"/>
+      <c r="D28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="15"/>
+    </row>
+    <row r="29" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C29" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="51"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:B19"/>
-    <mergeCell ref="C5:C17"/>
+  <mergeCells count="6">
+    <mergeCell ref="AI19:AQ19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E19:AH19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Paperwork/작업 스케줄.xlsx
+++ b/Paperwork/작업 스케줄.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\78h\Desktop\Portfolio\Scaffold-Fall\Paperwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31031A72-7FED-4329-ACF4-7B3233BD60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC49D0-C2FB-4C6E-8621-A260CB53C5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20430" yWindow="15410" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10960" yWindow="2970" windowWidth="22870" windowHeight="16170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>비계</t>
   </si>
@@ -36,9 +36,6 @@
     <t>거푸집</t>
   </si>
   <si>
-    <t>거푸집 벽면</t>
-  </si>
-  <si>
     <t>HDRI</t>
   </si>
   <si>
@@ -60,12 +57,6 @@
     <t>작업대</t>
   </si>
   <si>
-    <t>외부 천막</t>
-  </si>
-  <si>
-    <t>외부 골조</t>
-  </si>
-  <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,18 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아트 에셋 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +126,95 @@
   </si>
   <si>
     <t>아트 에셋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기둥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 프랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 프랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방진, 방음 갑바천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사 현장 배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 선택음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비명 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거푸집 제거 및 적재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전장구 착용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ds Max 이용 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papago 음성 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URP Sample asset 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity asset store 
+다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,30 +257,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF339966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -251,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -656,13 +706,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,185 +746,191 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,734 +1314,860 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AMJ29"/>
+  <dimension ref="A2:AMI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="43" width="3" style="1" customWidth="1"/>
-    <col min="44" max="1024" width="8.6640625" style="1"/>
+    <col min="44" max="1023" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+    <row r="2" spans="2:11" ht="12.5" customHeight="1"/>
+    <row r="3" spans="2:11" ht="21" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="58"/>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="58"/>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="59"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="59"/>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="59"/>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="59"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="59"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="59"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="59"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="2:43">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43">
+      <c r="B18" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="2:43">
+      <c r="B19" s="58"/>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="2:43">
+      <c r="B20" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43">
+      <c r="B21" s="63"/>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43">
+      <c r="B22" s="63"/>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="2:43">
+      <c r="B23" s="63"/>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="2:43">
+      <c r="B24" s="63"/>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="63"/>
+    </row>
+    <row r="25" spans="2:43">
+      <c r="B25" s="61"/>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="2:43">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+    </row>
+    <row r="27" spans="2:43" ht="17.5" thickBot="1"/>
+    <row r="28" spans="2:43">
+      <c r="C28" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
+      <c r="AQ28" s="49"/>
+    </row>
+    <row r="29" spans="2:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C29" s="53"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="11">
+        <v>3</v>
+      </c>
+      <c r="H29" s="9">
+        <v>4</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>6</v>
+      </c>
+      <c r="K29" s="9">
+        <v>7</v>
+      </c>
+      <c r="L29" s="9">
+        <v>8</v>
+      </c>
+      <c r="M29" s="10">
+        <v>9</v>
+      </c>
+      <c r="N29" s="11">
+        <v>10</v>
+      </c>
+      <c r="O29" s="9">
+        <v>11</v>
+      </c>
+      <c r="P29" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>13</v>
+      </c>
+      <c r="R29" s="9">
+        <v>14</v>
+      </c>
+      <c r="S29" s="9">
+        <v>15</v>
+      </c>
+      <c r="T29" s="10">
+        <v>16</v>
+      </c>
+      <c r="U29" s="11">
+        <v>17</v>
+      </c>
+      <c r="V29" s="9">
+        <v>18</v>
+      </c>
+      <c r="W29" s="9">
+        <v>19</v>
+      </c>
+      <c r="X29" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>23</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>24</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>26</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>27</v>
+      </c>
+      <c r="AF29" s="9">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="AG29" s="9">
+        <v>29</v>
+      </c>
+      <c r="AH29" s="38">
+        <v>30</v>
+      </c>
+      <c r="AI29" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="AJ29" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
+      <c r="AK29" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
+      <c r="AL29" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
+      <c r="AM29" s="9">
         <v>5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="s">
+      <c r="AN29" s="9">
         <v>6</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="AO29" s="10">
         <v>7</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="s">
+      <c r="AP29" s="11">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="6" t="s">
+      <c r="AQ29" s="12">
         <v>9</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="30" spans="2:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C30" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="3:43" ht="17.5" thickBot="1"/>
-    <row r="19" spans="3:43">
-      <c r="C19" s="61" t="s">
+      <c r="D30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="15"/>
+    </row>
+    <row r="31" spans="2:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="20"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="15"/>
+    </row>
+    <row r="32" spans="2:43" ht="22.5" customHeight="1">
+      <c r="C32" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="12"/>
-    </row>
-    <row r="20" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C20" s="62"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-      <c r="G20" s="18">
-        <v>3</v>
-      </c>
-      <c r="H20" s="16">
-        <v>4</v>
-      </c>
-      <c r="I20" s="16">
-        <v>5</v>
-      </c>
-      <c r="J20" s="16">
-        <v>6</v>
-      </c>
-      <c r="K20" s="16">
-        <v>7</v>
-      </c>
-      <c r="L20" s="16">
-        <v>8</v>
-      </c>
-      <c r="M20" s="17">
-        <v>9</v>
-      </c>
-      <c r="N20" s="18">
-        <v>10</v>
-      </c>
-      <c r="O20" s="16">
-        <v>11</v>
-      </c>
-      <c r="P20" s="16">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>13</v>
-      </c>
-      <c r="R20" s="16">
-        <v>14</v>
-      </c>
-      <c r="S20" s="16">
-        <v>15</v>
-      </c>
-      <c r="T20" s="17">
+      <c r="E32" s="21"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="40"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="16"/>
+    </row>
+    <row r="33" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C33" s="54"/>
+      <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="U20" s="18">
+      <c r="E33" s="22"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="17"/>
+    </row>
+    <row r="34" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C34" s="55"/>
+      <c r="D34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V20" s="16">
-        <v>18</v>
-      </c>
-      <c r="W20" s="16">
+      <c r="E34" s="23"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="8"/>
+    </row>
+    <row r="35" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C35" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="16">
+      <c r="D35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="16">
+      <c r="E35" s="21"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="40"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="16"/>
+    </row>
+    <row r="36" spans="3:43" ht="22.5" customHeight="1">
+      <c r="C36" s="54"/>
+      <c r="D36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="34"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="17"/>
+    </row>
+    <row r="37" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C37" s="55"/>
+      <c r="D37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Z20" s="16">
+      <c r="E37" s="23"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="35"/>
+      <c r="AM37" s="35"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="8"/>
+    </row>
+    <row r="38" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C38" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AA20" s="17">
+      <c r="D38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AB20" s="18">
-        <v>24</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>26</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>27</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>28</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>29</v>
-      </c>
-      <c r="AH20" s="50">
-        <v>30</v>
-      </c>
-      <c r="AI20" s="56">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="16">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="16">
-        <v>3</v>
-      </c>
-      <c r="AL20" s="16">
-        <v>4</v>
-      </c>
-      <c r="AM20" s="16">
-        <v>5</v>
-      </c>
-      <c r="AN20" s="16">
-        <v>6</v>
-      </c>
-      <c r="AO20" s="17">
-        <v>7</v>
-      </c>
-      <c r="AP20" s="18">
-        <v>8</v>
-      </c>
-      <c r="AQ20" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="51"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="21"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="22"/>
-    </row>
-    <row r="22" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="21"/>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="22"/>
-    </row>
-    <row r="23" spans="3:43" ht="22.5" customHeight="1">
-      <c r="C23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="24"/>
-    </row>
-    <row r="24" spans="3:43" ht="22.5" customHeight="1">
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="26"/>
-    </row>
-    <row r="25" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C25" s="27"/>
-      <c r="D25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="15"/>
-    </row>
-    <row r="26" spans="3:43" ht="22.5" customHeight="1">
-      <c r="C26" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="24"/>
-    </row>
-    <row r="27" spans="3:43" ht="22.5" customHeight="1">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="58"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="26"/>
-    </row>
-    <row r="28" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C28" s="27"/>
-      <c r="D28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="15"/>
-    </row>
-    <row r="29" spans="3:43" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C29" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="20"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="48"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="36"/>
+      <c r="AP38" s="36"/>
+      <c r="AQ38" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AI19:AQ19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E19:AH19"/>
+  <mergeCells count="17">
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="AI28:AQ28"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E28:AH28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
